--- a/data/trans_orig/P20-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P20-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>31329</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22320</v>
+        <v>21685</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44417</v>
+        <v>43942</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05371935516718471</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03827111958634374</v>
+        <v>0.03718307614824397</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07616068106961993</v>
+        <v>0.075345996979435</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -765,19 +765,19 @@
         <v>85124</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66619</v>
+        <v>69306</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>104041</v>
+        <v>104372</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09229202506137558</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07222893999816332</v>
+        <v>0.07514257800791437</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1128014944328813</v>
+        <v>0.1131613971186653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>113</v>
@@ -786,19 +786,19 @@
         <v>116453</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97421</v>
+        <v>97604</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>141150</v>
+        <v>138350</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07735013590857873</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06470893282008632</v>
+        <v>0.06483018880749374</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09375429458734259</v>
+        <v>0.09189432313268429</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>551868</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>538780</v>
+        <v>539255</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>560877</v>
+        <v>561512</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9462806448328153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9238393189303801</v>
+        <v>0.924654003020565</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9617288804136562</v>
+        <v>0.9628169238517561</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>804</v>
@@ -836,19 +836,19 @@
         <v>837209</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>818292</v>
+        <v>817961</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>855714</v>
+        <v>853027</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9077079749386244</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8871985055671188</v>
+        <v>0.8868386028813349</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9277710600018366</v>
+        <v>0.9248574219920856</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1345</v>
@@ -857,19 +857,19 @@
         <v>1389077</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1364380</v>
+        <v>1367180</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1408109</v>
+        <v>1407926</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9226498640914212</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9062457054126575</v>
+        <v>0.9081056768673156</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9352910671799137</v>
+        <v>0.9351698111925062</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>40584</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29769</v>
+        <v>29302</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53874</v>
+        <v>54719</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03765114125851866</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0276177147547974</v>
+        <v>0.02718438955654052</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04998068967995907</v>
+        <v>0.0507644992325578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -982,19 +982,19 @@
         <v>61041</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47714</v>
+        <v>47912</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79682</v>
+        <v>77744</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05771994151849145</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04511840888934495</v>
+        <v>0.04530486999000739</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07534686504024748</v>
+        <v>0.07351432272034489</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -1003,19 +1003,19 @@
         <v>101625</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84078</v>
+        <v>82660</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>122809</v>
+        <v>123173</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0475898883586152</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03937303487386818</v>
+        <v>0.03870861982081356</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0575099217495283</v>
+        <v>0.0576806151272891</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1037310</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1024020</v>
+        <v>1023175</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1048125</v>
+        <v>1048592</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9623488587414813</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9500193103200408</v>
+        <v>0.9492355007674419</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9723822852452019</v>
+        <v>0.9728156104434593</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>969</v>
@@ -1053,19 +1053,19 @@
         <v>996497</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>977856</v>
+        <v>979794</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1009824</v>
+        <v>1009626</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9422800584815085</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9246531349597524</v>
+        <v>0.926485677279655</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9548815911106551</v>
+        <v>0.9546951300099926</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1982</v>
@@ -1074,19 +1074,19 @@
         <v>2033807</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2012623</v>
+        <v>2012259</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2051354</v>
+        <v>2052772</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9524101116413848</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9424900782504717</v>
+        <v>0.9423193848727109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9606269651261318</v>
+        <v>0.9612913801791864</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>38731</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27709</v>
+        <v>27539</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53069</v>
+        <v>52313</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03453180446452828</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02470522091847957</v>
+        <v>0.02455324735958124</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04731557756823173</v>
+        <v>0.04664177519331193</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -1199,19 +1199,19 @@
         <v>76634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62439</v>
+        <v>60469</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95467</v>
+        <v>91941</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07710166696205839</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0628194794974931</v>
+        <v>0.06083736696665209</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0960493609181587</v>
+        <v>0.09250177316479755</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>114</v>
@@ -1220,19 +1220,19 @@
         <v>115365</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>95669</v>
+        <v>95231</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>135732</v>
+        <v>138709</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05453236919016588</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0452223424100781</v>
+        <v>0.04501498826801208</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06415952651016357</v>
+        <v>0.06556693396522086</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1082863</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1068525</v>
+        <v>1069281</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1093885</v>
+        <v>1094055</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9654681955354717</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9526844224317699</v>
+        <v>0.9533582248066881</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9752947790815205</v>
+        <v>0.9754467526404187</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>906</v>
@@ -1270,19 +1270,19 @@
         <v>917306</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>898473</v>
+        <v>901999</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>931501</v>
+        <v>933471</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9228983330379417</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9039506390818414</v>
+        <v>0.9074982268352024</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9371805205025069</v>
+        <v>0.9391626330333479</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1971</v>
@@ -1291,19 +1291,19 @@
         <v>2000169</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1979802</v>
+        <v>1976825</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2019865</v>
+        <v>2020303</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9454676308098341</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9358404734898365</v>
+        <v>0.9344330660347792</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9547776575899219</v>
+        <v>0.9549850117319879</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>21464</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13273</v>
+        <v>13884</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32726</v>
+        <v>32377</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04799609720307793</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02967989611972208</v>
+        <v>0.03104662214903105</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07317973300227279</v>
+        <v>0.07239912080910417</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1416,19 +1416,19 @@
         <v>20469</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12874</v>
+        <v>12725</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30685</v>
+        <v>30881</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05999821269898065</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03773707296034667</v>
+        <v>0.03729810552663441</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08994370159227237</v>
+        <v>0.09051743187643464</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -1437,19 +1437,19 @@
         <v>41933</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30803</v>
+        <v>29876</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56717</v>
+        <v>55633</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0531899565301689</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03907270897270586</v>
+        <v>0.03789708834023967</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07194304478485186</v>
+        <v>0.0705686090127394</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>425736</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>414474</v>
+        <v>414823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>433927</v>
+        <v>433316</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.952003902796922</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9268202669977272</v>
+        <v>0.9276008791908957</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9703201038802781</v>
+        <v>0.9689533778509689</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>319</v>
@@ -1487,19 +1487,19 @@
         <v>320689</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>310473</v>
+        <v>310277</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>328284</v>
+        <v>328433</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9400017873010194</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9100562984077276</v>
+        <v>0.9094825681235653</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9622629270396533</v>
+        <v>0.9627018944733655</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>734</v>
@@ -1508,19 +1508,19 @@
         <v>746425</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>731641</v>
+        <v>732725</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>757555</v>
+        <v>758482</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9468100434698311</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9280569552151481</v>
+        <v>0.9294313909872606</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9609272910272941</v>
+        <v>0.9621029116597603</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>132107</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>111895</v>
+        <v>111608</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>156551</v>
+        <v>156729</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04090158616639909</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03464379480352909</v>
+        <v>0.0345548365046041</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04846966113879389</v>
+        <v>0.04852450702852034</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>236</v>
@@ -1633,19 +1633,19 @@
         <v>243268</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>212620</v>
+        <v>214766</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>274862</v>
+        <v>276626</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07338479347754685</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0641392366343338</v>
+        <v>0.06478678059820872</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08291538697495308</v>
+        <v>0.08344761172132893</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>369</v>
@@ -1654,19 +1654,19 @@
         <v>375376</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>341012</v>
+        <v>339841</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>417026</v>
+        <v>416568</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05735433284609674</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05210388300684352</v>
+        <v>0.05192488842560219</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06371812828952832</v>
+        <v>0.06364812189261888</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3097778</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3073334</v>
+        <v>3073156</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3117990</v>
+        <v>3118277</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9590984138336009</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9515303388612062</v>
+        <v>0.9514754929714796</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9653562051964708</v>
+        <v>0.9654451634953958</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2998</v>
@@ -1704,19 +1704,19 @@
         <v>3071701</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3040107</v>
+        <v>3038343</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3102349</v>
+        <v>3100203</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9266152065224531</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9170846130250471</v>
+        <v>0.9165523882786712</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9358607633656663</v>
+        <v>0.9352132194017914</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6032</v>
@@ -1725,19 +1725,19 @@
         <v>6169477</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6127827</v>
+        <v>6128285</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6203841</v>
+        <v>6205012</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9426456671539033</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9362818717104716</v>
+        <v>0.9363518781073811</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9478961169931565</v>
+        <v>0.9480751115743978</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>90336</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73873</v>
+        <v>74911</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113606</v>
+        <v>112193</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08653378335056912</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0707644115409566</v>
+        <v>0.07175847331630994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1088250837839056</v>
+        <v>0.1074709160625758</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>124</v>
@@ -2090,19 +2090,19 @@
         <v>132990</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>111358</v>
+        <v>111483</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>155135</v>
+        <v>156398</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1187489505320472</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09943313502535558</v>
+        <v>0.09954499717326172</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1385221928815953</v>
+        <v>0.1396504684924502</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>208</v>
@@ -2111,19 +2111,19 @@
         <v>223326</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>194374</v>
+        <v>197945</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>253765</v>
+        <v>255442</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1032070554878254</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08982739374419804</v>
+        <v>0.09147774544250864</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.117274258266361</v>
+        <v>0.1180492698407714</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>953599</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>930329</v>
+        <v>931742</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>970062</v>
+        <v>969024</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9134662166494308</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8911749162160946</v>
+        <v>0.8925290839374243</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9292355884590436</v>
+        <v>0.9282415266836901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>907</v>
@@ -2161,19 +2161,19 @@
         <v>986938</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>964793</v>
+        <v>963530</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1008570</v>
+        <v>1008445</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8812510494679529</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8614778071184047</v>
+        <v>0.8603495315075498</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9005668649746446</v>
+        <v>0.9004550028267384</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1801</v>
@@ -2182,19 +2182,19 @@
         <v>1940537</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1910098</v>
+        <v>1908421</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1969489</v>
+        <v>1965918</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8967929445121746</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8827257417336392</v>
+        <v>0.8819507301592285</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9101726062558021</v>
+        <v>0.9085222545574916</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>44404</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32038</v>
+        <v>32361</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61517</v>
+        <v>60786</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04554182564012481</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03285824085399974</v>
+        <v>0.03318984163296076</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06309260291543729</v>
+        <v>0.06234290242208794</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>103</v>
@@ -2307,19 +2307,19 @@
         <v>112068</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>90655</v>
+        <v>93672</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>134222</v>
+        <v>134319</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1024141782334778</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08284569883359967</v>
+        <v>0.08560314250860006</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1226601046250922</v>
+        <v>0.1227488186959549</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -2328,19 +2328,19 @@
         <v>156472</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>132428</v>
+        <v>130700</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>185835</v>
+        <v>182787</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07561655700052576</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06399702697571541</v>
+        <v>0.06316163331745697</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08980613853499418</v>
+        <v>0.08833327299836068</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>930621</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>913508</v>
+        <v>914239</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>942987</v>
+        <v>942664</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9544581743598752</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9369073970845627</v>
+        <v>0.937657097577912</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9671417591460002</v>
+        <v>0.9668101583670392</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>917</v>
@@ -2378,19 +2378,19 @@
         <v>982194</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>960040</v>
+        <v>959943</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1003607</v>
+        <v>1000590</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8975858217665221</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8773398953749078</v>
+        <v>0.8772511813040451</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9171543011664003</v>
+        <v>0.9143968574913999</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1801</v>
@@ -2399,19 +2399,19 @@
         <v>1912816</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1883453</v>
+        <v>1886501</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1936860</v>
+        <v>1938588</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9243834429994743</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9101938614650055</v>
+        <v>0.9116667270016393</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9360029730242844</v>
+        <v>0.9368383666825428</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>41528</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29920</v>
+        <v>29271</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55731</v>
+        <v>55561</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04691789931955356</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03380380893096332</v>
+        <v>0.03307030019241199</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06296475282263897</v>
+        <v>0.0627726589493222</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -2524,19 +2524,19 @@
         <v>54440</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42058</v>
+        <v>40442</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71132</v>
+        <v>70361</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06216020652018587</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04802294179115928</v>
+        <v>0.04617756712412523</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08122028327986923</v>
+        <v>0.08033902955495291</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>92</v>
@@ -2545,19 +2545,19 @@
         <v>95967</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77329</v>
+        <v>79365</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115896</v>
+        <v>116705</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05449871924028967</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04391417697872213</v>
+        <v>0.04507069265103959</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06581600485443816</v>
+        <v>0.06627541860563327</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>843587</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>829384</v>
+        <v>829554</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>855195</v>
+        <v>855844</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9530821006804464</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9370352471773613</v>
+        <v>0.937227341050678</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9661961910690369</v>
+        <v>0.9669296998075882</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>770</v>
@@ -2595,19 +2595,19 @@
         <v>821356</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>804664</v>
+        <v>805435</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>833738</v>
+        <v>835354</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9378397934798142</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9187797167201308</v>
+        <v>0.9196609704450471</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9519770582088408</v>
+        <v>0.953822432875875</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1559</v>
@@ -2616,19 +2616,19 @@
         <v>1664944</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1645015</v>
+        <v>1644206</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1683582</v>
+        <v>1681546</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9455012807597103</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9341839951455618</v>
+        <v>0.9337245813943666</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9560858230212779</v>
+        <v>0.9549293073489603</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>32647</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22804</v>
+        <v>22298</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47525</v>
+        <v>45273</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06490086285322705</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04533385144001282</v>
+        <v>0.04432888102639999</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09447823898721351</v>
+        <v>0.0900014552803827</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -2741,19 +2741,19 @@
         <v>38735</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27518</v>
+        <v>27752</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53542</v>
+        <v>53463</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08555685500285526</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06078205335672654</v>
+        <v>0.06129837127892265</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1182636818202505</v>
+        <v>0.1180878236483821</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -2762,19 +2762,19 @@
         <v>71381</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55931</v>
+        <v>54930</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93509</v>
+        <v>91821</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07468545295051017</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05852051862022561</v>
+        <v>0.05747250455282377</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0978375401382701</v>
+        <v>0.09607166716463179</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>470376</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>455498</v>
+        <v>457750</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>480219</v>
+        <v>480725</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.935099137146773</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9055217610127864</v>
+        <v>0.9099985447196174</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9546661485599872</v>
+        <v>0.9556711189736001</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>376</v>
@@ -2812,19 +2812,19 @@
         <v>414001</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>399194</v>
+        <v>399273</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>425218</v>
+        <v>424984</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9144431449971447</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8817363181797495</v>
+        <v>0.881912176351618</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9392179466432735</v>
+        <v>0.9387016287210773</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>808</v>
@@ -2833,19 +2833,19 @@
         <v>884377</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>862249</v>
+        <v>863937</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>899827</v>
+        <v>900828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9253145470494898</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9021624598617303</v>
+        <v>0.9039283328353684</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9414794813797746</v>
+        <v>0.9425274954471764</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>208914</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>181678</v>
+        <v>182674</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>242312</v>
+        <v>238418</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06131740574150277</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05332327353126624</v>
+        <v>0.05361570354125611</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07111972951582714</v>
+        <v>0.06997672771505868</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>314</v>
@@ -2958,19 +2958,19 @@
         <v>338233</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>303570</v>
+        <v>304346</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>377778</v>
+        <v>377221</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09547251162558587</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08568846919513658</v>
+        <v>0.08590734076152962</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1066350885783239</v>
+        <v>0.1064778640110745</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>507</v>
@@ -2979,19 +2979,19 @@
         <v>547147</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>499926</v>
+        <v>504105</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>592913</v>
+        <v>594801</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07872822304559615</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0719336876897745</v>
+        <v>0.07253496320228131</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08531345375104428</v>
+        <v>0.08558509256329146</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3198184</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3164786</v>
+        <v>3168680</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3225420</v>
+        <v>3224424</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9386825942584972</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9288802704841729</v>
+        <v>0.9300232722849413</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9466767264687339</v>
+        <v>0.9463842964587439</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2970</v>
@@ -3029,19 +3029,19 @@
         <v>3204489</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3164944</v>
+        <v>3165501</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3239152</v>
+        <v>3238376</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9045274883744141</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8933649114216762</v>
+        <v>0.8935221359889256</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9143115308048636</v>
+        <v>0.9140926592384705</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5969</v>
@@ -3050,19 +3050,19 @@
         <v>6402673</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6356907</v>
+        <v>6355019</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6449894</v>
+        <v>6445715</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9212717769544039</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9146865462489557</v>
+        <v>0.9144149074367084</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9280663123102255</v>
+        <v>0.9274650367977185</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>56890</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42610</v>
+        <v>43798</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73648</v>
+        <v>76850</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05043478850717553</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0377749909094167</v>
+        <v>0.03882838504913055</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06529107779035065</v>
+        <v>0.0681294774754849</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>92</v>
@@ -3415,19 +3415,19 @@
         <v>101862</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83471</v>
+        <v>83804</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123765</v>
+        <v>124700</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08087127213855162</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06626957462929157</v>
+        <v>0.06653439606453447</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09826061041177415</v>
+        <v>0.09900272253841905</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>143</v>
@@ -3436,19 +3436,19 @@
         <v>158753</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>133474</v>
+        <v>133111</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>184971</v>
+        <v>185634</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0664916134116081</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05590393754568906</v>
+        <v>0.0557520300287557</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07747302559278953</v>
+        <v>0.07775055292664164</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1071107</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1054349</v>
+        <v>1051147</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1085387</v>
+        <v>1084199</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9495652114928245</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9347089222096491</v>
+        <v>0.9318705225245151</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9622250090905832</v>
+        <v>0.9611716149508694</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1096</v>
@@ -3486,19 +3486,19 @@
         <v>1157699</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1135796</v>
+        <v>1134861</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1176090</v>
+        <v>1175757</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9191287278614484</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9017393895882255</v>
+        <v>0.9009972774615811</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9337304253707084</v>
+        <v>0.9334656039354655</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2111</v>
@@ -3507,19 +3507,19 @@
         <v>2228805</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2202587</v>
+        <v>2201924</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2254084</v>
+        <v>2254447</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9335083865883919</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9225269744072104</v>
+        <v>0.9222494470733583</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9440960624543109</v>
+        <v>0.9442479699712443</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>42786</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31530</v>
+        <v>32183</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58812</v>
+        <v>57693</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04707805118043494</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0346934079115742</v>
+        <v>0.03541215688846643</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06471201818495492</v>
+        <v>0.06348048068308622</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -3632,19 +3632,19 @@
         <v>75889</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59424</v>
+        <v>60579</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94794</v>
+        <v>94476</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07540032905631192</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05904172113808798</v>
+        <v>0.06018922852543443</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09418460551508154</v>
+        <v>0.0938686148420201</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>111</v>
@@ -3653,19 +3653,19 @@
         <v>118674</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>99806</v>
+        <v>99131</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>140235</v>
+        <v>144964</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0619611879749852</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05210969423397784</v>
+        <v>0.05175762383250253</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07321806742229441</v>
+        <v>0.07568750206148359</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>866039</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>850013</v>
+        <v>851132</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>877295</v>
+        <v>876642</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.952921948819565</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9352879818150452</v>
+        <v>0.9365195193169141</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9653065920884257</v>
+        <v>0.9645878431115337</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>882</v>
@@ -3703,19 +3703,19 @@
         <v>930586</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>911681</v>
+        <v>911999</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>947051</v>
+        <v>945896</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9245996709436881</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9058153944849181</v>
+        <v>0.9061313851579799</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9409582788619119</v>
+        <v>0.9398107714745654</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1721</v>
@@ -3724,19 +3724,19 @@
         <v>1796626</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1775065</v>
+        <v>1770336</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1815494</v>
+        <v>1816169</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9380388120250148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9267819325777056</v>
+        <v>0.9243124979385163</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9478903057660221</v>
+        <v>0.9482423761674973</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>39521</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28452</v>
+        <v>28760</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54076</v>
+        <v>54021</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04797675254945737</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03453978593478239</v>
+        <v>0.0349133644309635</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06564571535204607</v>
+        <v>0.06557820782854751</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -3849,19 +3849,19 @@
         <v>63703</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49948</v>
+        <v>50785</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80099</v>
+        <v>81622</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08261729647175729</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06477784687554655</v>
+        <v>0.06586459496393397</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1038820411616415</v>
+        <v>0.1058571085104813</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>100</v>
@@ -3870,19 +3870,19 @@
         <v>103224</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86319</v>
+        <v>84461</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>127187</v>
+        <v>121809</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06472467790179179</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05412482950412935</v>
+        <v>0.0529596016275232</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07974999555241576</v>
+        <v>0.07637774178236684</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>784238</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>769683</v>
+        <v>769738</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>795307</v>
+        <v>794999</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9520232474505427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.934354284647954</v>
+        <v>0.9344217921714526</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9654602140652178</v>
+        <v>0.9650866355690366</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>666</v>
@@ -3920,19 +3920,19 @@
         <v>707356</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>690960</v>
+        <v>689437</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>721111</v>
+        <v>720274</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9173827035282427</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8961179588383585</v>
+        <v>0.8941428914895183</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9352221531244534</v>
+        <v>0.9341354050360656</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1415</v>
@@ -3941,19 +3941,19 @@
         <v>1491594</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1467631</v>
+        <v>1473009</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1508499</v>
+        <v>1510357</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9352753220982082</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9202500044475842</v>
+        <v>0.9236222582176333</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9458751704958707</v>
+        <v>0.9470403983724769</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>21097</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13458</v>
+        <v>13142</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32455</v>
+        <v>31221</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04163564644468709</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02656065122967654</v>
+        <v>0.02593621808312371</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06405249404326212</v>
+        <v>0.06161602477740515</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -4066,19 +4066,19 @@
         <v>30821</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20590</v>
+        <v>20718</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44477</v>
+        <v>44449</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06293932778813463</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04204678512235131</v>
+        <v>0.04230771063917423</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09082471195477042</v>
+        <v>0.09076754142639494</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -4087,19 +4087,19 @@
         <v>51918</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38915</v>
+        <v>38220</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68730</v>
+        <v>70589</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05210571548866721</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03905610624497177</v>
+        <v>0.03835788613689696</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06897848498196461</v>
+        <v>0.07084392262377238</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>485604</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>474246</v>
+        <v>475480</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>493243</v>
+        <v>493559</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9583643535553129</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.935947505956738</v>
+        <v>0.9383839752225949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9734393487703235</v>
+        <v>0.9740637819168763</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>428</v>
@@ -4137,19 +4137,19 @@
         <v>458877</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>445221</v>
+        <v>445249</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>469108</v>
+        <v>468980</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9370606722118654</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.90917528804523</v>
+        <v>0.9092324585736047</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9579532148776487</v>
+        <v>0.9576922893608256</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>878</v>
@@ -4158,19 +4158,19 @@
         <v>944480</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>927668</v>
+        <v>925809</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>957483</v>
+        <v>958178</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9478942845113327</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9310215150180354</v>
+        <v>0.9291560773762282</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9609438937550283</v>
+        <v>0.9616421138631031</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>160294</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>135973</v>
+        <v>136538</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>188079</v>
+        <v>187432</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04760341036700038</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04038053896365193</v>
+        <v>0.04054836615002795</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05585487146446401</v>
+        <v>0.05566272866348903</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>250</v>
@@ -4283,19 +4283,19 @@
         <v>272275</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>243876</v>
+        <v>238122</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>306555</v>
+        <v>306135</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0772018440881279</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06914950791316692</v>
+        <v>0.06751802655184652</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08692170891788489</v>
+        <v>0.08680277171221618</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>402</v>
@@ -4304,19 +4304,19 @@
         <v>432569</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>390417</v>
+        <v>392955</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>474640</v>
+        <v>477835</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06274504078810524</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05663083080951564</v>
+        <v>0.05699887998164437</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06884755270120101</v>
+        <v>0.06931093541923318</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3206988</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3179203</v>
+        <v>3179850</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3231309</v>
+        <v>3230744</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9523965896329997</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.944145128535536</v>
+        <v>0.9443372713365112</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9596194610363481</v>
+        <v>0.9594516338499721</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3072</v>
@@ -4354,19 +4354,19 @@
         <v>3254517</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3220237</v>
+        <v>3220657</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3282916</v>
+        <v>3288670</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9227981559118721</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9130782910821152</v>
+        <v>0.9131972282877838</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9308504920868333</v>
+        <v>0.9324819734481536</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6125</v>
@@ -4375,19 +4375,19 @@
         <v>6461506</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6419435</v>
+        <v>6416240</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6503658</v>
+        <v>6501120</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9372549592118947</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9311524472987991</v>
+        <v>0.9306890645807668</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9433691691904847</v>
+        <v>0.9430011200183553</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>48126</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36033</v>
+        <v>36051</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63080</v>
+        <v>63300</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09649600874595649</v>
+        <v>0.09649600874595647</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07224882127659008</v>
+        <v>0.07228477701260173</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.126479212204084</v>
+        <v>0.1269210669569726</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -4740,19 +4740,19 @@
         <v>49687</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38230</v>
+        <v>38328</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63545</v>
+        <v>64228</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07968056462096454</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06130651710627685</v>
+        <v>0.06146382560539376</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1019042004823123</v>
+        <v>0.1029982439588789</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>120</v>
@@ -4761,19 +4761,19 @@
         <v>97814</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>81908</v>
+        <v>81242</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>117700</v>
+        <v>117760</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08715305591363035</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07298078188024247</v>
+        <v>0.07238795386213212</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1048717933726027</v>
+        <v>0.1049252363692471</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>450613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>435659</v>
+        <v>435439</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>462706</v>
+        <v>462688</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9035039912540435</v>
+        <v>0.9035039912540436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8735207877959162</v>
+        <v>0.8730789330430275</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.92775117872341</v>
+        <v>0.9277152229873982</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>790</v>
@@ -4811,19 +4811,19 @@
         <v>573893</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>560035</v>
+        <v>559352</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>585350</v>
+        <v>585252</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9203194353790355</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8980957995176877</v>
+        <v>0.897001756041121</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9386934828937231</v>
+        <v>0.9385361743946062</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1196</v>
@@ -4832,19 +4832,19 @@
         <v>1024506</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1004620</v>
+        <v>1004560</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1040412</v>
+        <v>1041078</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9128469440863697</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8951282066273972</v>
+        <v>0.895074763630753</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9270192181197576</v>
+        <v>0.9276120461378681</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>51069</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38114</v>
+        <v>39696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65155</v>
+        <v>66333</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05318882631996524</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03969666675274917</v>
+        <v>0.0413444540599015</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06786058761941852</v>
+        <v>0.06908723499200946</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -4957,19 +4957,19 @@
         <v>67729</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55269</v>
+        <v>56382</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82147</v>
+        <v>84546</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06069743672106655</v>
+        <v>0.06069743672106653</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04953088170970527</v>
+        <v>0.05052841684760506</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07361854769262047</v>
+        <v>0.07576854034745688</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>163</v>
@@ -4978,19 +4978,19 @@
         <v>118798</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>99530</v>
+        <v>101278</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139698</v>
+        <v>140057</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05722472915839281</v>
+        <v>0.05722472915839279</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04794363124715065</v>
+        <v>0.04878537540054693</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06729231118404302</v>
+        <v>0.0674654320838728</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>909068</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>894982</v>
+        <v>893804</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>922023</v>
+        <v>920441</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9468111736800349</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9321394123805815</v>
+        <v>0.9309127650079906</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9603033332472509</v>
+        <v>0.9586555459400985</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1506</v>
@@ -5028,19 +5028,19 @@
         <v>1048120</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1033702</v>
+        <v>1031303</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1060580</v>
+        <v>1059467</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9393025632789335</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9263814523073796</v>
+        <v>0.9242314596525431</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9504691182902949</v>
+        <v>0.9494715831523948</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2354</v>
@@ -5049,19 +5049,19 @@
         <v>1957188</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1936288</v>
+        <v>1935929</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1976456</v>
+        <v>1974708</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9427752708416072</v>
+        <v>0.9427752708416071</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9327076888159569</v>
+        <v>0.9325345679161272</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9520563687528488</v>
+        <v>0.9512146245994535</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>53746</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40211</v>
+        <v>39957</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71749</v>
+        <v>73343</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05135931458098751</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03842468594172618</v>
+        <v>0.03818207985521825</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06856222266746223</v>
+        <v>0.07008584079786324</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -5174,19 +5174,19 @@
         <v>62596</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48941</v>
+        <v>49725</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78462</v>
+        <v>78646</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05974910900617587</v>
+        <v>0.05974910900617588</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0467151671215759</v>
+        <v>0.04746352243193819</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07489364001447839</v>
+        <v>0.0750692258961322</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -5195,19 +5195,19 @@
         <v>116342</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>97252</v>
+        <v>95883</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>139975</v>
+        <v>140698</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05555654020225025</v>
+        <v>0.05555654020225026</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04644038671759996</v>
+        <v>0.04578682043757534</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06684185580822126</v>
+        <v>0.06718732699539894</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>992733</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>974730</v>
+        <v>973136</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1006268</v>
+        <v>1006522</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9486406854190125</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9314377773325377</v>
+        <v>0.9299141592021368</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9615753140582738</v>
+        <v>0.9618179201447816</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1432</v>
@@ -5245,19 +5245,19 @@
         <v>985046</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>969180</v>
+        <v>968996</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>998701</v>
+        <v>997917</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9402508909938241</v>
+        <v>0.9402508909938243</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9251063599855216</v>
+        <v>0.9249307741038677</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9532848328784241</v>
+        <v>0.9525364775680618</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2403</v>
@@ -5266,19 +5266,19 @@
         <v>1977779</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1954146</v>
+        <v>1953423</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1996869</v>
+        <v>1998238</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9444434597977497</v>
+        <v>0.9444434597977498</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9331581441917786</v>
+        <v>0.9328126730046014</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9535596132824</v>
+        <v>0.9542131795624248</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>50225</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38138</v>
+        <v>38062</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65974</v>
+        <v>66473</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0514640766821757</v>
+        <v>0.05146407668217571</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03907844377118457</v>
+        <v>0.03900084213387837</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06760096300195551</v>
+        <v>0.06811233584304961</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>81</v>
@@ -5391,19 +5391,19 @@
         <v>60673</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46314</v>
+        <v>46302</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76300</v>
+        <v>77000</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0667727236355696</v>
+        <v>0.06677272363556958</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05097050467629374</v>
+        <v>0.05095761143955618</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08397132475054431</v>
+        <v>0.08474152785077173</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>138</v>
@@ -5412,19 +5412,19 @@
         <v>110898</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>92487</v>
+        <v>91950</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134368</v>
+        <v>132580</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05884510871452066</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0490760535775048</v>
+        <v>0.04879095690461189</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07129881198354625</v>
+        <v>0.07035018846556383</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>925704</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>909955</v>
+        <v>909456</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>937791</v>
+        <v>937867</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9485359233178243</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9323990369980446</v>
+        <v>0.9318876641569503</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9609215562288156</v>
+        <v>0.9609991578661216</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1240</v>
@@ -5462,19 +5462,19 @@
         <v>847969</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>832342</v>
+        <v>831642</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>862328</v>
+        <v>862340</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9332272763644304</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9160286752494556</v>
+        <v>0.9152584721492283</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9490294953237065</v>
+        <v>0.949042388560444</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2130</v>
@@ -5483,19 +5483,19 @@
         <v>1773673</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1750203</v>
+        <v>1751991</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1792084</v>
+        <v>1792621</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9411548912854794</v>
+        <v>0.9411548912854792</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9287011880164536</v>
+        <v>0.929649811534436</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9509239464224954</v>
+        <v>0.9512090430953878</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>203167</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>176839</v>
+        <v>177347</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>234490</v>
+        <v>232850</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0583596811948847</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05079692639742377</v>
+        <v>0.05094302391362236</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06735746125380151</v>
+        <v>0.06688635311679235</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>337</v>
@@ -5608,19 +5608,19 @@
         <v>240685</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>214252</v>
+        <v>216321</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>271536</v>
+        <v>268277</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06512533917548789</v>
+        <v>0.06512533917548791</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05797318347081338</v>
+        <v>0.05853299697214181</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07347331305851335</v>
+        <v>0.07259135971810396</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>563</v>
@@ -5629,19 +5629,19 @@
         <v>443851</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>405313</v>
+        <v>405608</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>482131</v>
+        <v>482673</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0618435797560561</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05647395612652663</v>
+        <v>0.0565149514169303</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06717731339080477</v>
+        <v>0.0672527871286064</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3278117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3246794</v>
+        <v>3248434</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3304445</v>
+        <v>3303937</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9416403188051152</v>
+        <v>0.9416403188051153</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.932642538746198</v>
+        <v>0.9331136468832076</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9492030736025762</v>
+        <v>0.949056976086378</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4968</v>
@@ -5679,19 +5679,19 @@
         <v>3455028</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3424177</v>
+        <v>3427436</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3481461</v>
+        <v>3479392</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9348746608245121</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9265266869414865</v>
+        <v>0.9274086402818961</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9420268165291864</v>
+        <v>0.9414670030278581</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8083</v>
@@ -5700,19 +5700,19 @@
         <v>6733147</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6694867</v>
+        <v>6694325</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6771685</v>
+        <v>6771390</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9381564202439437</v>
+        <v>0.9381564202439439</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9328226866091951</v>
+        <v>0.9327472128713936</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9435260438734734</v>
+        <v>0.9434850485830696</v>
       </c>
     </row>
     <row r="18">
